--- a/氣象性能評估工具V2/data/obs/backup/2016-06-23_t2_obs.xlsx
+++ b/氣象性能評估工具V2/data/obs/backup/2016-06-23_t2_obs.xlsx
@@ -91,7 +91,7 @@
     <t>恆春</t>
   </si>
   <si>
-    <t>2016-06-23 00:00:00</t>
+    <t>2016-06-23-00</t>
   </si>
   <si>
     <t>22.6</t>
@@ -151,7 +151,7 @@
     <t>28.3</t>
   </si>
   <si>
-    <t>2016-06-23 01:00:00</t>
+    <t>2016-06-23-01</t>
   </si>
   <si>
     <t>23.2</t>
@@ -190,7 +190,7 @@
     <t>28.2</t>
   </si>
   <si>
-    <t>2016-06-23 02:00:00</t>
+    <t>2016-06-23-02</t>
   </si>
   <si>
     <t>23.1</t>
@@ -211,7 +211,7 @@
     <t>26.6</t>
   </si>
   <si>
-    <t>2016-06-23 03:00:00</t>
+    <t>2016-06-23-03</t>
   </si>
   <si>
     <t>23.7</t>
@@ -238,7 +238,7 @@
     <t>26.5</t>
   </si>
   <si>
-    <t>2016-06-23 04:00:00</t>
+    <t>2016-06-23-04</t>
   </si>
   <si>
     <t>24.0</t>
@@ -262,7 +262,7 @@
     <t>26.1</t>
   </si>
   <si>
-    <t>2016-06-23 05:00:00</t>
+    <t>2016-06-23-05</t>
   </si>
   <si>
     <t>24.8</t>
@@ -274,7 +274,7 @@
     <t>7.9</t>
   </si>
   <si>
-    <t>2016-06-23 06:00:00</t>
+    <t>2016-06-23-06</t>
   </si>
   <si>
     <t>22.9</t>
@@ -307,7 +307,7 @@
     <t>30.1</t>
   </si>
   <si>
-    <t>2016-06-23 07:00:00</t>
+    <t>2016-06-23-07</t>
   </si>
   <si>
     <t>23.5</t>
@@ -355,7 +355,7 @@
     <t>31.6</t>
   </si>
   <si>
-    <t>2016-06-23 08:00:00</t>
+    <t>2016-06-23-08</t>
   </si>
   <si>
     <t>25.8</t>
@@ -394,7 +394,7 @@
     <t>32.5</t>
   </si>
   <si>
-    <t>2016-06-23 09:00:00</t>
+    <t>2016-06-23-09</t>
   </si>
   <si>
     <t>25.5</t>
@@ -427,7 +427,7 @@
     <t>14.5</t>
   </si>
   <si>
-    <t>2016-06-23 10:00:00</t>
+    <t>2016-06-23-10</t>
   </si>
   <si>
     <t>31.7</t>
@@ -460,7 +460,7 @@
     <t>33.9</t>
   </si>
   <si>
-    <t>2016-06-23 11:00:00</t>
+    <t>2016-06-23-11</t>
   </si>
   <si>
     <t>35.9</t>
@@ -484,7 +484,7 @@
     <t>32.9</t>
   </si>
   <si>
-    <t>2016-06-23 12:00:00</t>
+    <t>2016-06-23-12</t>
   </si>
   <si>
     <t>30.7</t>
@@ -511,7 +511,7 @@
     <t>34.2</t>
   </si>
   <si>
-    <t>2016-06-23 13:00:00</t>
+    <t>2016-06-23-13</t>
   </si>
   <si>
     <t>29.6</t>
@@ -532,7 +532,7 @@
     <t>13.4</t>
   </si>
   <si>
-    <t>2016-06-23 14:00:00</t>
+    <t>2016-06-23-14</t>
   </si>
   <si>
     <t>25.4</t>
@@ -547,7 +547,7 @@
     <t>10.4</t>
   </si>
   <si>
-    <t>2016-06-23 15:00:00</t>
+    <t>2016-06-23-15</t>
   </si>
   <si>
     <t>20.8</t>
@@ -559,7 +559,7 @@
     <t>10.0</t>
   </si>
   <si>
-    <t>2016-06-23 16:00:00</t>
+    <t>2016-06-23-16</t>
   </si>
   <si>
     <t>21.2</t>
@@ -571,7 +571,7 @@
     <t>8.9</t>
   </si>
   <si>
-    <t>2016-06-23 17:00:00</t>
+    <t>2016-06-23-17</t>
   </si>
   <si>
     <t>26.3</t>
@@ -586,7 +586,7 @@
     <t>7.0</t>
   </si>
   <si>
-    <t>2016-06-23 18:00:00</t>
+    <t>2016-06-23-18</t>
   </si>
   <si>
     <t>21.3</t>
@@ -598,7 +598,7 @@
     <t>8.8</t>
   </si>
   <si>
-    <t>2016-06-23 19:00:00</t>
+    <t>2016-06-23-19</t>
   </si>
   <si>
     <t>12.5</t>
@@ -607,7 +607,7 @@
     <t>8.0</t>
   </si>
   <si>
-    <t>2016-06-23 20:00:00</t>
+    <t>2016-06-23-20</t>
   </si>
   <si>
     <t>22.4</t>
@@ -616,7 +616,7 @@
     <t>7.6</t>
   </si>
   <si>
-    <t>2016-06-23 21:00:00</t>
+    <t>2016-06-23-21</t>
   </si>
   <si>
     <t>23.6</t>
@@ -628,7 +628,7 @@
     <t>12.8</t>
   </si>
   <si>
-    <t>2016-06-23 22:00:00</t>
+    <t>2016-06-23-22</t>
   </si>
   <si>
     <t>22.5</t>
@@ -640,7 +640,7 @@
     <t>7.1</t>
   </si>
   <si>
-    <t>2016-06-23 23:00:00</t>
+    <t>2016-06-23-23</t>
   </si>
   <si>
     <t>23.8</t>
